--- a/teaching/traditional_assets/database/data/botswana/botswana_beverage_alcoholic.xlsx
+++ b/teaching/traditional_assets/database/data/botswana/botswana_beverage_alcoholic.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="K2">
-        <v>25.4</v>
+        <v>11</v>
       </c>
       <c r="M2">
-        <v>11.9</v>
+        <v>10.3</v>
       </c>
       <c r="N2">
-        <v>0.05251544571932922</v>
+        <v>0.04865375531412377</v>
       </c>
       <c r="O2">
-        <v>0.4685039370078741</v>
+        <v>0.9363636363636364</v>
       </c>
       <c r="P2">
-        <v>11.9</v>
+        <v>10.3</v>
       </c>
       <c r="Q2">
-        <v>0.05251544571932922</v>
+        <v>0.04865375531412377</v>
       </c>
       <c r="R2">
-        <v>0.4685039370078741</v>
+        <v>0.9363636363636364</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -618,31 +618,31 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.362</v>
+        <v>0.595</v>
       </c>
       <c r="V2">
-        <v>0.001597528684907326</v>
+        <v>0.002810581010864431</v>
       </c>
       <c r="W2">
-        <v>0.4695009242144177</v>
+        <v>0.196078431372549</v>
       </c>
       <c r="X2">
-        <v>0.06752638656814162</v>
+        <v>0.04998170370534875</v>
       </c>
       <c r="Y2">
-        <v>0.4019745376462761</v>
+        <v>0.1460967276672003</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>-0.00331807259828825</v>
+        <v>-0.003204822924541017</v>
       </c>
       <c r="AB2">
-        <v>0.06752638656814162</v>
+        <v>0.04998170370534875</v>
       </c>
       <c r="AC2">
-        <v>-0.07084445916642987</v>
+        <v>-0.05318652662988977</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-0.362</v>
+        <v>-0.595</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -663,19 +663,19 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.001600084866379653</v>
+        <v>-0.00281850264086592</v>
       </c>
       <c r="AK2">
-        <v>-0.006494671498797947</v>
+        <v>-0.01175773144946151</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>-0.003</v>
+        <v>-0.023</v>
       </c>
       <c r="AQ2">
-        <v>61.33333333333333</v>
+        <v>8.391304347826088</v>
       </c>
     </row>
     <row r="3">
@@ -695,25 +695,25 @@
         </is>
       </c>
       <c r="K3">
-        <v>25.4</v>
+        <v>11</v>
       </c>
       <c r="M3">
-        <v>11.9</v>
+        <v>10.3</v>
       </c>
       <c r="N3">
-        <v>0.05251544571932922</v>
+        <v>0.04865375531412377</v>
       </c>
       <c r="O3">
-        <v>0.4685039370078741</v>
+        <v>0.9363636363636364</v>
       </c>
       <c r="P3">
-        <v>11.9</v>
+        <v>10.3</v>
       </c>
       <c r="Q3">
-        <v>0.05251544571932922</v>
+        <v>0.04865375531412377</v>
       </c>
       <c r="R3">
-        <v>0.4685039370078741</v>
+        <v>0.9363636363636364</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -722,31 +722,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.362</v>
+        <v>0.595</v>
       </c>
       <c r="V3">
-        <v>0.001597528684907326</v>
+        <v>0.002810581010864431</v>
       </c>
       <c r="W3">
-        <v>0.4695009242144177</v>
+        <v>0.196078431372549</v>
       </c>
       <c r="X3">
-        <v>0.06752638656814162</v>
+        <v>0.04998170370534875</v>
       </c>
       <c r="Y3">
-        <v>0.4019745376462761</v>
+        <v>0.1460967276672003</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>-0.00331807259828825</v>
+        <v>-0.003204822924541017</v>
       </c>
       <c r="AB3">
-        <v>0.06752638656814162</v>
+        <v>0.04998170370534875</v>
       </c>
       <c r="AC3">
-        <v>-0.07084445916642987</v>
+        <v>-0.05318652662988977</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-0.362</v>
+        <v>-0.595</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -767,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.001600084866379653</v>
+        <v>-0.00281850264086592</v>
       </c>
       <c r="AK3">
-        <v>-0.006494671498797947</v>
+        <v>-0.01175773144946151</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>-0.003</v>
+        <v>-0.023</v>
       </c>
       <c r="AQ3">
-        <v>61.33333333333333</v>
+        <v>8.391304347826088</v>
       </c>
     </row>
   </sheetData>
